--- a/JavaHuyExample/src/test/java/com/data/WorkspaceCCaaS.xlsx
+++ b/JavaHuyExample/src/test/java/com/data/WorkspaceCCaaS.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\AutoPOM\pom-interim-2013\NonProduction\Automation\POM\src\test\java\com\data\testcasedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Huy\JavaHuyExample\src\test\java\com\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C35BAB-DFD8-4E4F-96AF-800FA5459B4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Agent" sheetId="1" r:id="rId1"/>
-    <sheet name="CallBack" sheetId="2" r:id="rId2"/>
-    <sheet name="TestFunction" sheetId="3" r:id="rId3"/>
-    <sheet name="CCaaS" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Agent" sheetId="1" r:id="rId2"/>
+    <sheet name="CallBack" sheetId="2" r:id="rId3"/>
+    <sheet name="TestFunction" sheetId="3" r:id="rId4"/>
+    <sheet name="CCaaS" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="452">
   <si>
     <t>Testcase_ID</t>
   </si>
@@ -1338,12 +1340,57 @@
   </si>
   <si>
     <t>Avaya12345$</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>huy</t>
+  </si>
+  <si>
+    <t>huy1</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>212,33</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>{}!@#$%^&amp;*()_+{}|</t>
+  </si>
+  <si>
+    <t>==d</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1720,7 +1767,7 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1881,11 +1928,16 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
-    <cellStyle name="20% - Accent3 2" xfId="4"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="2"/>
+    <cellStyle name="20% - Accent3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2164,7 +2216,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331DE026-6368-4155-A8E8-0F1D941505F1}">
+  <dimension ref="B2:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="126">
+        <v>44602</v>
+      </c>
+      <c r="F3">
+        <v>11.2</v>
+      </c>
+      <c r="G3" s="130" t="s">
+        <v>446</v>
+      </c>
+      <c r="I3" s="129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4">
+        <v>333</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="127">
+        <v>0.41843750000000002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G4" s="128" t="s">
+        <v>447</v>
+      </c>
+      <c r="H4" s="129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AKT43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5642,11 +5794,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:ALA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8374,8 +8526,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:ALZ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10226,8 +10378,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
